--- a/09_Driver/03 驱动断链.xlsx
+++ b/09_Driver/03 驱动断链.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\09_Driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E997A566-C120-4FC7-9E72-5AEB5A14353D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CF29EB-094F-4A97-891C-66950B0259FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9768" yWindow="888" windowWidth="13272" windowHeight="9876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>驱动断链</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,15 +88,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2）还需要抹除对应驱动对象的一些属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1）不要再驱动的入口点，断掉自身，还有一些驱动加载操作没做完，可以开线程延时操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>隐藏自身</t>
+    <t>2）对于有驱动对象的，还需要抹除对应驱动对象的一些属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏自身、PCHunter32aq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3）在抹除驱动对象一些属性时，DriverSection设为NULL，在隐藏pchunter32aq.sys时会蓝屏，测试其他驱动正常；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     若是将其设置为 Ldr-&gt;InLoadOrderLinks.Flink，测试pchunter时不会蓝屏，隐藏其他驱动时，在pehunter可观察到可疑驱动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -242,6 +250,55 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>372818</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>175170</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A22659C-1615-7DBF-E6E0-FBC12D98A185}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1973580" y="5044440"/>
+          <a:ext cx="4495238" cy="723810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -715,7 +772,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1373,7 +1430,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2383,198 +2440,6 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>// </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>通过名字找到内核对象</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>该函数未文档化 需自己申明</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>),</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>参数</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>1 \\driver\\xxx</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>NTSTATUS status = ObReferenceObjectByName(&amp;usDriverPath,FILE_ALL_ACCESS, 0, 0, *IoDriverObjectType, KernelMode, NULL,(PVOID*)&amp;ObjPDriver);</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>// </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>在将指定的驱动对象的一些属性抹除</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>if (NT_SUCCESS(status)) {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>RemoveEntryList(&amp;NextLdr-&gt;InLoadOrderLinks);  // </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>移除链表中的某一项</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ObjPDriver-&gt;DriverInit = NULL;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ObjPDriver-&gt;DriverSection = NULL;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ObjPDriver-&gt;Type = 0;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
@@ -2601,6 +2466,235 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t>// </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>通过名字找到内核对象</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>该函数未文档化 需自己申明</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>),</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>参数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1 \\driver\\xxx </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>驱动对象路径</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>NTSTATUS status = ObReferenceObjectByName(&amp;usDriverPath,FILE_ALL_ACCESS, 0, 0, *IoDriverObjectType, KernelMode, NULL,(PVOID*)&amp;ObjPDriver);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>// </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>在将指定的驱动对象的一些属性抹除</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>if (NT_SUCCESS(status)) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>RemoveEntryList(&amp;NextLdr-&gt;InLoadOrderLinks);  // </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>移除链表中的某一项</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ObjPDriver-&gt;DriverInit = NULL;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ObjPDriver-&gt;DriverSection = NULL;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ObjPDriver-&gt;Type = 0;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>ObDereferenceObject(ObjPDriver);  //</a:t>
           </a:r>
           <a:r>
@@ -2817,7 +2911,7 @@
       <xdr:row>95</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="8924494" cy="15762392"/>
+    <xdr:ext cx="8924494" cy="16470150"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="文本框 2">
@@ -2832,7 +2926,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="16802100"/>
-          <a:ext cx="8924494" cy="15762392"/>
+          <a:ext cx="8924494" cy="16470150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3595,7 +3689,46 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>NTSTATUS ntstatus = PsCreateSystemThread(&amp;HandleThread, THREAD_ALL_ACCESS, NULL, NULL, NULL, ThreadProc, NULL);</a:t>
+            <a:t>NTSTATUS status = PsCreateSystemThread(&amp;HandleThread, THREAD_ALL_ACCESS, NULL, NULL, NULL, ThreadProc, NULL);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>if (NT_SUCCESS(status)) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>NtClose(HandleThread);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3703,7 +3836,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Timeout.QuadPart = -10000*3000; // </a:t>
+            <a:t>Timeout.QuadPart = -10000*5000; // </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
@@ -4034,33 +4167,20 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>ObjPDriver-&gt;DriverSection = NULL;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>// ObjPDriver-&gt;DriverSection = Ldr-&gt;InLoadOrderLinks.Flink;</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ObjPDriver-&gt;Type = 0;</a:t>
+            <a:t>//ObjPDriver-&gt;DriverSection = NULL; </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ObjPDriver-&gt;DriverSection = Ldr-&gt;InLoadOrderLinks.Flink;</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4209,7 +4329,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>HideDriver(L"\\driver\\Testdriver"); // </a:t>
+            <a:t>HideDriver(L"\\driver\\PCHunter32aq"); // </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
@@ -4220,8 +4340,53 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t>隐藏</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PCHunter32aq</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//HideDriver(L"\\driver\\Testdriver"); // </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>隐藏自身</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -4254,6 +4419,103 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>60961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>489647</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAA63DAE-D29B-9CA5-FE7F-677FF2A265A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7124701" y="9349741"/>
+          <a:ext cx="6776146" cy="2468880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直接箭头连接符 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A09638EA-02D3-5995-E5C1-D2B5E92EFD5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5242560" y="10698480"/>
+          <a:ext cx="1889760" cy="1173480"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4520,10 +4782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4658,7 +4920,7 @@
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C24" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="5"/>
@@ -4668,7 +4930,17 @@
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C25" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -4681,6 +4953,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4724,7 +4997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBECFBC9-748A-4934-A25F-789B2181F323}">
   <dimension ref="A95"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
+    <sheetView topLeftCell="A177" workbookViewId="0">
       <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>

--- a/09_Driver/03 驱动断链.xlsx
+++ b/09_Driver/03 驱动断链.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\09_Driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CF29EB-094F-4A97-891C-66950B0259FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5007373D-7A52-4EDD-BBAE-D6BE98848BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>驱动断链</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +106,17 @@
   </si>
   <si>
     <t xml:space="preserve">     若是将其设置为 Ldr-&gt;InLoadOrderLinks.Flink，测试pchunter时不会蓝屏，隐藏其他驱动时，在pehunter可观察到可疑驱动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extern POBJECT_TYPE *IoDriverObjectType;</t>
+  </si>
+  <si>
+    <t>4）ObReferenceObjectByName函数需要传入 IoDriverObjectType(是一个内核中全局对象，使用extern 导入这个全局对象)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果不使用 extern申明，只是创建了新的变量，将其传入ObReferenceObjectByName 直接蓝屏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2911,7 +2923,7 @@
       <xdr:row>95</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="8924494" cy="16470150"/>
+    <xdr:ext cx="8924494" cy="16833454"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="文本框 2">
@@ -2926,7 +2938,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="16802100"/>
-          <a:ext cx="8924494" cy="16470150"/>
+          <a:ext cx="8924494" cy="16833454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3545,6 +3557,85 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>VOID ThreadProc(PVOID Parameter);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>// ObReferenceObjectByName</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>函数需要传入 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>IoDriverObjectType(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>是一个内核中全局对象，使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>extern </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>导入这个全局对象</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4514,6 +4605,99 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>213361</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>68105</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3A70BCD-299A-7D7D-2E90-43E9A3FE28A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="350520"/>
+          <a:ext cx="5090160" cy="2346485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>338842</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>160021</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2589AC72-A3DD-7C0B-6338-5DAB0BF4DF83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="2804161"/>
+          <a:ext cx="6434842" cy="2438400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4782,10 +4966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4943,6 +5127,21 @@
         <v>21</v>
       </c>
     </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4950,6 +5149,7 @@
     <hyperlink ref="C21" location="Sheet3!A1" display="遍历驱动链表" xr:uid="{ACBFF7A5-874E-4B1D-93E8-02232D3D4FE8}"/>
     <hyperlink ref="B23" location="Sheet4!A1" display="2、驱动断链" xr:uid="{0B68546E-7657-424A-BBA4-D417AE4E4133}"/>
     <hyperlink ref="C24" location="Sheet4!A95" display="1）不要再驱动的入口点，断掉自身，还有一些驱动加载操作没做完，可以开线程延时操作" xr:uid="{26B782C0-10C7-45D8-B610-7CE0837F9BE9}"/>
+    <hyperlink ref="C34:C36" location="Sheet5!A1" display="4）ObReferenceObjectByName函数需要传入 IoDriverObjectType(是一个内核中全局对象，使用extern 导入这个全局对象)" xr:uid="{2FF0181F-0115-47C4-81D9-C3FAA90FF4D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4983,7 +5183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D20D1FA-5F2D-474B-856D-31EC20EE6ABD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -4997,8 +5197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBECFBC9-748A-4934-A25F-789B2181F323}">
   <dimension ref="A95"/>
   <sheetViews>
-    <sheetView topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+    <sheetView topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5013,4 +5213,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B76D5F-0D55-4EFC-895B-36D89C3E5893}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/09_Driver/03 驱动断链.xlsx
+++ b/09_Driver/03 驱动断链.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\09_Driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5007373D-7A52-4EDD-BBAE-D6BE98848BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA84AD97-4AE0-4519-99F5-36B15C668FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4968,8 +4968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5219,7 +5219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B76D5F-0D55-4EFC-895B-36D89C3E5893}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/09_Driver/03 驱动断链.xlsx
+++ b/09_Driver/03 驱动断链.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\09_Driver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA84AD97-4AE0-4519-99F5-36B15C668FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722BCB3C-CAB8-45B2-8116-8642E20F9FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,9 +70,6 @@
     <t xml:space="preserve">   +0x010 DriverSize       : 0x6000</t>
   </si>
   <si>
-    <t xml:space="preserve">   +0x014 DriverSection    : 0x85f17e28 Void</t>
-  </si>
-  <si>
     <t>1、驱动对象的DriverSection，类似于R3进程的PEB中模块链表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,6 +114,10 @@
   </si>
   <si>
     <t>如果不使用 extern申明，只是创建了新的变量，将其传入ObReferenceObjectByName 直接蓝屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   ** +0x014 DriverSection    : 0x85f17e28 Void</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4968,8 +4969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4991,7 +4992,7 @@
     </row>
     <row r="8" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -5074,7 +5075,7 @@
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C19" s="6" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -5089,7 +5090,7 @@
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C21" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I21" s="2"/>
     </row>
@@ -5098,13 +5099,13 @@
     </row>
     <row r="23" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C24" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="5"/>
@@ -5114,32 +5115,32 @@
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C25" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -5162,14 +5163,14 @@
   <dimension ref="B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -5183,7 +5184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D20D1FA-5F2D-474B-856D-31EC20EE6ABD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView topLeftCell="A21" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -5205,7 +5206,7 @@
   <sheetData>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -5219,7 +5220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B76D5F-0D55-4EFC-895B-36D89C3E5893}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
